--- a/results/binary_summary.xlsx
+++ b/results/binary_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stcunnin\OneDrive - SUNY ESF\Documents\Dissertation\SpatialPatternsofRodenticide\NYFisherRodenticide\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StephCunningham\Documents\GitHub\NYFisherRodenticide\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3934DEB-B3BC-4717-A26E-A734AA2998C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7263FB-B9E5-4FD2-81B2-5E325D56ADED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1425" windowWidth="17595" windowHeight="11265" xr2:uid="{DEE3CF28-37F4-4364-9B97-FD0FAB4BE514}"/>
+    <workbookView xWindow="16380" yWindow="20" windowWidth="15380" windowHeight="10210" xr2:uid="{DEE3CF28-37F4-4364-9B97-FD0FAB4BE514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,29 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>coef</t>
   </si>
   <si>
-    <t>X.Intercept.</t>
-  </si>
-  <si>
     <t>SexM</t>
   </si>
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>wui_60_100</t>
-  </si>
-  <si>
-    <t>pasture_60</t>
-  </si>
-  <si>
-    <t>laggedBMI_30</t>
-  </si>
-  <si>
     <t>param_est</t>
   </si>
   <si>
@@ -80,14 +68,49 @@
     <t>Diphacinone</t>
   </si>
   <si>
-    <t>RE_var</t>
+    <t>z-score</t>
+  </si>
+  <si>
+    <t>WUI</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>MAST</t>
+  </si>
+  <si>
+    <t>BBA*MAST</t>
+  </si>
+  <si>
+    <t>PASTURE</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <r>
+      <t>Age</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +126,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,10 +176,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,394 +523,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A3DE08-A516-401B-91BB-8DBE16AE68A2}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7" style="2" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="10"/>
+    <col min="18" max="18" width="5.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.5703125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" s="3">
+        <v>0.61224844342754103</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.47272450003737598</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.0890301304841501</v>
+      </c>
+      <c r="E3" s="3">
+        <v>-0.32945830210448901</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.107417430265903</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-6.22244807210676E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-0.113011838968721</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.6622510300262701E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.04270334870492E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f>EXP(C3)</f>
+        <v>1.6043593211520339</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:U7" si="0">EXP(D3)</f>
+        <v>2.9713908132269826</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.71931327840367931</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1133989238978976</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93967192488226958</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89314008619587959</v>
+      </c>
+      <c r="S3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0373013763368346</v>
+      </c>
+      <c r="T3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0206370931964555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B4" s="3">
+        <v>0.20466961519112101</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.271280220264698</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.191986613873453</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.3359728584144694E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.159811760104521</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.16317846086820301</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.16777600303415199</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.126922328790052</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.12561308193435999</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M7" si="1">EXP(C4)</f>
+        <v>1.3116425677195984</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2116542974985853</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0978565946411065</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1732899902180505</v>
+      </c>
+      <c r="Q4" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1772467634224286</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1826716661107293</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1353288319927126</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.133843378913824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.9926275824617599</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.7426133083976501</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.6721478109628398</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-3.5290105993612402</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.67582627667671902</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-0.36194008462430999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-0.671484737653812</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.28879423860588699</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.16237850313653601</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B6" s="3">
+        <v>0.211103368923271</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-5.89749613995251E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.71274328177839297</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-0.51244000773584697</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-0.20580786384491201</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-0.38204838707542399</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-0.441846762385744</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-0.21214068296219099</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-0.225770083091376</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.94273037351076638</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.039578730304513</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59903215106819008</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81398945806389711</v>
+      </c>
+      <c r="Q6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.68246203006472717</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64284813642306615</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80885089802155452</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79790153163157995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B7" s="3">
+        <v>1.0133935179318101</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.00442396147427</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.4653169791899201</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-0.14647659647312999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.42064272437672001</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.25759942563328903</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.21582308444830001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.28538570356271697</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.26662415006547402</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.730334042152299</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="0"/>
+        <v>4.3289151988811003</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8637459467996913</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5229400718352883</v>
+      </c>
+      <c r="Q7" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2938204435024825</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2408828281101307</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3302750209985164</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3055496633505657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.282658711379703</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.46506181606277402</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.69478387816710596</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.13821653810791101</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-7.03228818099998E-3</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1.38614143778889E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.21446828537982099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.17234829404181601</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.25951692859272402</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.14680121915828501</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.14150758412999601</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.145593212603636</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.12901580753775899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-5.5137737739175602E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-4.3582017357417902E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.40705877573029497</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-0.13913323032615299</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.29238974127761003</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-0.26672775058824699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.62045516049858196</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.97370564948296701</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.982508980603917</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.41556630654197602</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.27832516491560999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.23900492183246899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="M10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="S10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B11" s="3">
+        <v>-0.72332390094267296</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.28045080356749202</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.57920693314987803</v>
+      </c>
+      <c r="E11" s="3">
+        <v>-0.27648707264841998</v>
+      </c>
+      <c r="F11" s="3">
+        <v>-1.40246764344663E-2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-2.6073259707525699E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-0.20242531294267399</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.38070287926887197</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.202924896832648</v>
+      </c>
+      <c r="M11" s="3">
+        <f>EXP(C11)</f>
+        <v>1.3237264184430704</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" ref="N11:T15" si="2">EXP(D11)</f>
+        <v>1.784622544398077</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75844342373308871</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.98607321119166147</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97426371271960954</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.81674748078611326</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4633127602549765</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2249804648798135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-0.93540894942775599</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.31504916037164998</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.24851835364714001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.10796511454341801</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.116198465864916</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.25597804981025302</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.19314406133593401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.175167460939606</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.26582532555879101</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.132818417517962</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.14229239655231499</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.14146272615885999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.131627442766617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-1.27873086413271</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-0.205958903902215</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-1.18009611716703E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-0.17092285797300999</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.16106338256130201</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-2.0069973894228598E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>0.20386138714352001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.26976688386589398</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.190822740929146</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.12334394454134601</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.15393223060722899</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.15287211106620799</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.17540849315000101</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.13467176180840101</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.14367238697628501</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12:M15" si="3">EXP(C12)</f>
+        <v>1.309659112475696</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2102449061791825</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1312734493692334</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.166411837077975</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1651759563030362</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1917329319349785</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1441611653166293</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1545058154203369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>-0.5920870347228</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.83605722464551502</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.50883766846595102</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.386853087059848</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.39346031429113498</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.51396309700993004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B13" s="3">
+        <v>-3.5481916930028499</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.03938815711701</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3.03517887287828</v>
+      </c>
+      <c r="E13" s="3">
+        <v>-2.2415750114869901</v>
+      </c>
+      <c r="F13" s="3">
+        <v>-9.1531373543788999E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-0.17275091202217099</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-1.15255807819307</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.8259508127222799</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.40333637063071</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>-1.1228848775823499</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-0.248282573031259</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.205201233497533</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-0.51823676166056498</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-0.31572630448454903</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-0.325697091637902</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-0.546219642099117</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.116751076389848</v>
+      </c>
+      <c r="J14" s="8">
+        <v>-7.8667807213771895E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.78013946575535709</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2277721089812419</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.59556975412238145</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72925901777876612</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.72202386137620578</v>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5791350149798925</v>
+      </c>
+      <c r="S14" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1238396446478525</v>
+      </c>
+      <c r="T14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92434693483266894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>-0.32376292430299503</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.80918418016624505</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.95321263280222202</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-3.4737383636275099E-2</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.28767695161561602</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.27355057222285001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.14136901621376799</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.64465468214789501</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.48451760087906898</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="3"/>
+        <v>2.2460748466141673</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5940299528522051</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96585903334131762</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.333326505569262</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="2"/>
+        <v>1.3146238409808291</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1518496207548814</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.905328971550913</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6233916971973401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="J18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="N18" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="O18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="B19" s="3">
+        <v>1.28770221637113</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.64471484221579201</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.92231884740936998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>-0.33799134476873799</v>
+      </c>
+      <c r="F19" s="3">
+        <v>7.3875834801283902E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>-0.18333753320731899</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-2.0633141359929601E-2</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.126339215914794</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6.2810202115086602E-2</v>
+      </c>
+      <c r="M19" s="3">
+        <f>EXP(C19)</f>
+        <v>1.9054435997191923</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" ref="N19:T23" si="4">EXP(D19)</f>
+        <v>2.5151158029680207</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7132014607951479</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.0766731118654564</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="4"/>
+        <v>0.83248711626327754</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97957826540941173</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1346670001132242</v>
+      </c>
+      <c r="T19" s="3">
+        <f t="shared" si="4"/>
+        <v>1.064824718571487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B20" s="3">
+        <v>0.20667004030244701</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.301491559037602</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.196998811496258</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9.5319639146483295E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.15996412630207299</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.15533515741250001</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.17887611681494101</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.132748433227141</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.13941704787631901</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" ref="M20:M23" si="5">EXP(C20)</f>
+        <v>1.3518737039748434</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2177425934134192</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1000104053255879</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1734687735724099</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1680493759151775</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1958725864860116</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1419626823261113</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1496034397159955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6.2314532231569597</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2.1383905072177498</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.6815753531111701</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3.5459271424997998</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.43625897511843398</v>
+      </c>
+      <c r="G21" s="8">
+        <v>-1.18356510681238</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-0.121929369599869</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.95182242900924297</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.44805958432030901</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
+      <c r="B22" s="3">
+        <v>0.88263638069489403</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5.3802244859259302E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.53620827187950804</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-0.52481440451520001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>-0.239648091569195</v>
+      </c>
+      <c r="G22" s="8">
+        <v>-0.48778884726867899</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-0.37122388801159401</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-0.13384293221452201</v>
+      </c>
+      <c r="J22" s="3">
+        <v>-0.210442190553395</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0552758952861394</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7095125508228959</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.59166516456034568</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.78690473075630052</v>
+      </c>
+      <c r="Q22" s="11">
+        <f t="shared" si="4"/>
+        <v>0.61398250343901373</v>
+      </c>
+      <c r="R22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.68988946628602699</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.87472744531674207</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.81022589250998489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.91218478314398099</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.64463298907483302</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.54120685155376302</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9.4787989463890596E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-0.13027904044684999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9.0216736744691106E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5.4970662428612302E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.16306378404565999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.29101573050092799</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.15914808786113999</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.14382182342203201</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.13877677882171299</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.14114351748238599</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.59258563923166996</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7.4252638358399098E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.22928233113751101</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-0.18709760463417199</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-0.40227652882789</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-0.18641947417208399</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.23178392705629</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.2150133397912599</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.85313137197001498</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.37667358356195302</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.141718447934188</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.36685294766146698</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="B23" s="3">
+        <v>1.69276805204737</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.2356274395723199</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1.3084294229392299</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-0.151168285022277</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.387399761171763</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.12111378085404099</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.32995760529173501</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.38652136404411103</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.33606259478356798</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="5"/>
+        <v>3.4405365724063492</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="4"/>
+        <v>3.7003574494346068</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85970301134477722</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4731452798611406</v>
+      </c>
+      <c r="Q23" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1287533355796779</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3909091600257519</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4718518414381605</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3994266188757638</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/binary_summary.xlsx
+++ b/results/binary_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stcunnin\OneDrive - SUNY ESF\Documents\Dissertation\SpatialPatternsofRodenticide\NYFisherRodenticide\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d429025120a7a9c/Documents/GitHub/NYFisherRodenticide/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3934DEB-B3BC-4717-A26E-A734AA2998C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{C3934DEB-B3BC-4717-A26E-A734AA2998C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51154989-53A5-493B-8CD1-6EBE821FAC00}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1425" windowWidth="17595" windowHeight="11265" xr2:uid="{DEE3CF28-37F4-4364-9B97-FD0FAB4BE514}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DEE3CF28-37F4-4364-9B97-FD0FAB4BE514}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>coef</t>
   </si>
@@ -81,13 +81,35 @@
   </si>
   <si>
     <t>RE_var</t>
+  </si>
+  <si>
+    <r>
+      <t>Age</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>z-score</t>
+  </si>
+  <si>
+    <t>Odds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +125,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,9 +142,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -124,10 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,20 +483,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A3DE08-A516-401B-91BB-8DBE16AE68A2}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.9296875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" customWidth="1"/>
+    <col min="5" max="8" width="10" customWidth="1"/>
+    <col min="9" max="10" width="9.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -469,369 +520,940 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>0.282658711379703</v>
+        <v>0.61134682151903097</v>
       </c>
       <c r="C3" s="1">
-        <v>0.46506181606277402</v>
+        <v>0.47636860717699198</v>
       </c>
       <c r="D3" s="1">
-        <v>0.69478387816710596</v>
+        <v>1.07859454351553</v>
       </c>
       <c r="E3" s="1">
-        <v>0.13821653810791101</v>
+        <v>-0.329209536873658</v>
       </c>
       <c r="F3" s="1">
-        <v>-7.03228818099998E-3</v>
+        <v>0.156271250462374</v>
       </c>
       <c r="G3" s="1">
-        <v>-1.38614143778889E-2</v>
+        <v>-1.31150995886051E-2</v>
       </c>
       <c r="H3" s="1">
-        <v>0.21446828537982099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.87271138787515E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.24128916242249501</v>
+      </c>
+      <c r="K3" s="4">
+        <f>EXP(C3)</f>
+        <v>1.610216443918554</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:M7" si="0">EXP(D3)</f>
+        <v>2.9405438390581971</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71949224079630869</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N7" si="1">EXP(F3)</f>
+        <v>1.169143290741034</v>
+      </c>
+      <c r="O3" s="1">
+        <f>EXP(G3)</f>
+        <v>0.98697052858058076</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P7" si="2">EXP(H3)</f>
+        <v>1.0028768415772344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>0.17234829404181601</v>
+        <v>0.20338184758188099</v>
       </c>
       <c r="C4" s="1">
-        <v>0.25951692859272402</v>
+        <v>0.26895006848569503</v>
       </c>
       <c r="D4" s="1">
-        <v>0.14680121915828501</v>
+        <v>0.19106212238365999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.14150758412999601</v>
+        <v>9.3317476172763605E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.145593212603636</v>
+        <v>0.14566471994351199</v>
       </c>
       <c r="G4" s="1">
-        <v>0.12901580753775899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.14933175859275699</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.13262122776478999</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:K7" si="3">EXP(C4)</f>
+        <v>1.3085897995448847</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2105346510435318</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0978102085326016</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1568082682820138</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O3:O7" si="4">EXP(G4)</f>
+        <v>1.1610581163277196</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1418174276739068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.0068364683354099</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.77127432261122</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.6450875364258604</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-3.5279027511691199</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.06942403073531</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-7.3291755307564502E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.2146853217035901E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="K5" s="4">
+        <f t="shared" si="3"/>
+        <v>5.8783394914275018</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>282.8983190466721</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9366440060802728E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9137008144721381</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.92932965361021913</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0223939152821091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
-        <v>-5.5137737739175602E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-4.3582017357417902E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.40705877573029497</v>
-      </c>
-      <c r="E5" s="1">
-        <v>-0.13913323032615299</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-0.29238974127761003</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-0.26672775058824699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>0.212725725149329</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-5.07638406945514E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.70411966483377797</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-0.51210842930044898</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.12922635444502301</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.30579996817843902</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-0.257060118616596</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="K6" s="4">
+        <f t="shared" si="3"/>
+        <v>0.9505031141844279</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0220658055149667</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59923081014530732</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87877502839742572</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.73653393494636477</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77332172133586252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.62045516049858196</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.97370564948296701</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.982508980603917</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.41556630654197602</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.27832516491560999</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.23900492183246899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="1">
+        <v>1.00996791788873</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0035010550485299</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.45306942219729</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.14631064444686701</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.44176885536977201</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.27956976900122898</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.26280554139234602</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7278153617523175</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2762199162064745</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.86388929908421119</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5554561635388173</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3225606833140242</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3005737865923921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
-        <v>-0.93540894942775599</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.31504916037164998</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.24851835364714001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.10796511454341801</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.116198465864916</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.25597804981025302</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.19314406133593401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" s="1">
+        <v>-0.67655434629758704</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.31425248848610898</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.57897199264730803</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.28664624769979102</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.12111149853634599</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.110756965619555</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.27931620254135803</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.26112300500000002</v>
+      </c>
+      <c r="K11" s="4">
+        <f>EXP(C11)</f>
+        <v>1.3692354090819376</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:P15" si="5">EXP(D11)</f>
+        <v>1.7842033135296822</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.75077727105279357</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1287507594089066</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1171233744727471</v>
+      </c>
+      <c r="P11" s="1">
+        <f>EXP(H11)</f>
+        <v>1.3222253687976457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.175167460939606</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.26582532555879101</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.132818417517962</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.14229239655231499</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.14146272615885999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.131627442766617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="1">
+        <v>0.20957008036450001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.27042918068749999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.190181034103477</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.12527606476389899</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.14605791309121299</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.14515823407554601</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.13464361615634601</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12:K15" si="6">EXP(C12)</f>
+        <v>1.310526782839222</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2094685328908172</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.133461318610574</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1572632067997988</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1562225095939533</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1441289626077606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-3.2282658900633301</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.1620399123549701</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.0442446764478999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-2.2880518257488398</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.82773010051599205</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.76201890823324603</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.0721096705148301</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="K13" s="4">
+        <f t="shared" si="6"/>
+        <v>3.1964471019757883</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="5"/>
+        <v>20.99416782322794</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10146393886472869</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2881190408690748</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1425975646942104</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="5"/>
+        <v>7.9415595314682168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <v>-1.27873086413271</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-0.205958903902215</v>
-      </c>
-      <c r="D12" s="1">
-        <v>-1.18009611716703E-2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>-0.17092285797300999</v>
-      </c>
-      <c r="F12" s="1">
-        <v>-0.16106338256130201</v>
-      </c>
-      <c r="G12" s="1">
-        <v>-2.0069973894228598E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B14" s="1">
+        <v>-1.0873041560491701</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.21577896603006599</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.20622401526190801</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.53218282276194195</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.165156750779512</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.17374794522795001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.54195641266845E-2</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="K14" s="4">
+        <f t="shared" si="6"/>
+        <v>0.80591341642992731</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2290284942995888</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58732155060053104</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84776080650502872</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84050872519637443</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0155390590018927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
-        <v>-0.5920870347228</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.83605722464551502</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.50883766846595102</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.386853087059848</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.39346031429113498</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.51396309700993004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="1">
+        <v>-0.265804536546001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.84428394300228504</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.95171997003270803</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-4.11096726376401E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.40737974785220499</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.39526187646706101</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.54321284095603195</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="K15" s="4">
+        <f t="shared" si="6"/>
+        <v>2.3263114464440662</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5901608292853084</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.95972386872767712</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5028747107556066</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4847729671120395</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7215289854142504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G18" t="s">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H18" t="s">
         <v>6</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.91218478314398099</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.64463298907483302</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.54120685155376302</v>
-      </c>
-      <c r="E17" s="1">
-        <v>9.4787989463890596E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-0.13027904044684999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>9.0216736744691106E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>5.4970662428612302E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="1">
+        <v>1.28663565</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.65392631899999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.91923813600000004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>-0.33724076600000003</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.10880946800000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-0.14538759500000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.11557215699999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>8.9728204000000006E-2</v>
+      </c>
+      <c r="K19" s="4">
+        <f>EXP(C19)</f>
+        <v>1.9230766376795134</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ref="L19:P23" si="7">EXP(D19)</f>
+        <v>2.5073793799799389</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="7"/>
+        <v>0.71373697561734051</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1149498964687858</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86468707976274839</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1225155089776679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.16306378404565999</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.29101573050092799</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.15914808786113999</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.14382182342203201</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.13877677882171299</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.14114351748238599</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="1">
+        <v>0.20796093399999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.29984797600000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.19682638899999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>9.5429594000000006E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.14869021700000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.142944611</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.146055301</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="K20" s="4">
+        <f t="shared" ref="K20:K23" si="8">EXP(C20)</f>
+        <v>1.3496536122383433</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2175326452960726</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1001313634584173</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.160313488135005</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1536658994957809</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1572601839266932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6.1869721130000004</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.1808968499999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.6699381630000003</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-3.5338600150000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.70957083399999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-1.020143016</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.79426401099999999</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="K21" s="4">
+        <f t="shared" si="8"/>
+        <v>8.8542436272714795</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="7"/>
+        <v>106.69114476814406</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9192016489047193E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0331185260412181</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="7"/>
+        <v>0.36054337301466677</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="7"/>
+        <v>2.212811792201153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
-        <v>0.59258563923166996</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7.4252638358399098E-2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.22928233113751101</v>
-      </c>
-      <c r="E19" s="1">
-        <v>-0.18709760463417199</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-0.40227652882789</v>
-      </c>
-      <c r="G19" s="1">
-        <v>-0.18641947417208399</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B22" s="1">
+        <v>0.87903971000000003</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.6235084999999999E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.53346550199999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-0.52427933400000004</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-0.182618001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.42555388300000002</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-0.170690974</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="K22" s="4">
+        <f t="shared" si="8"/>
+        <v>1.0684778707638634</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="7"/>
+        <v>1.7048301755641455</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.59198183185688447</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.83308633310766389</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.65340777342526968</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="7"/>
+        <v>0.84308206749882419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1">
-        <v>1.23178392705629</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.2150133397912599</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.85313137197001498</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.37667358356195302</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.141718447934188</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.36685294766146698</v>
-      </c>
-      <c r="H20" s="1"/>
+      <c r="B23" s="1">
+        <v>1.69423159</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.241617553</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.30501077</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-0.15020219900000001</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.40023693799999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.134778694</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.40183528699999999</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="K23" s="4">
+        <f t="shared" si="8"/>
+        <v>3.4612076258957547</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="7"/>
+        <v>3.6877288103304293</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86053395972652669</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4921782094800202</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="7"/>
+        <v>1.144283519519264</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4945651380932843</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/binary_summary.xlsx
+++ b/results/binary_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StephCunningham\Documents\GitHub\NYFisherRodenticide\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7263FB-B9E5-4FD2-81B2-5E325D56ADED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084E57B2-D9C0-4974-BB54-028CE41D6638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16380" yWindow="20" windowWidth="15380" windowHeight="10210" xr2:uid="{DEE3CF28-37F4-4364-9B97-FD0FAB4BE514}"/>
   </bookViews>

--- a/results/binary_summary.xlsx
+++ b/results/binary_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stcunnin\OneDrive - SUNY ESF\Documents\Dissertation\SpatialPatternsofRodenticide\NYFisherRodenticide\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D46010-9A8F-4833-A455-C755C9F52B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42F3F86-399C-4AAD-BB30-AF112F8E7636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEE3CF28-37F4-4364-9B97-FD0FAB4BE514}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +157,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -190,19 +196,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A3DE08-A516-401B-91BB-8DBE16AE68A2}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +564,7 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -566,42 +576,40 @@
       <c r="F2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -612,7 +620,7 @@
       <c r="B3" s="5">
         <v>0.66177873894750106</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="14">
         <v>0.44273435172679498</v>
       </c>
       <c r="D3" s="7">
@@ -624,7 +632,7 @@
       <c r="F3" s="7">
         <v>0.398195646607581</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="14">
         <v>-0.24957748168809399</v>
       </c>
       <c r="H3" s="5">
@@ -636,38 +644,36 @@
       <c r="J3" s="5">
         <v>-7.4236815647034202E-2</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="11">
-        <f>EXP(C3)</f>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:T3" si="0">EXP(C3)</f>
         <v>1.5569586760166667</v>
       </c>
-      <c r="N3" s="11">
-        <f>EXP(D3)</f>
+      <c r="N3" s="8">
+        <f t="shared" si="0"/>
         <v>3.0771468592003797</v>
       </c>
-      <c r="O3" s="11">
-        <f>EXP(E3)</f>
+      <c r="O3" s="8">
+        <f t="shared" si="0"/>
         <v>0.69508358010138849</v>
       </c>
-      <c r="P3" s="11">
-        <f>EXP(F3)</f>
+      <c r="P3" s="10">
+        <f t="shared" si="0"/>
         <v>1.489135345687489</v>
       </c>
-      <c r="Q3" s="11">
-        <f>EXP(G3)</f>
+      <c r="Q3" s="8">
+        <f t="shared" si="0"/>
         <v>0.77912991018980016</v>
       </c>
-      <c r="R3" s="11">
-        <f>EXP(H3)</f>
+      <c r="R3" s="8">
+        <f t="shared" si="0"/>
         <v>1.1405069854417522</v>
       </c>
-      <c r="S3" s="11">
-        <f>EXP(I3)</f>
+      <c r="S3" s="8">
+        <f t="shared" si="0"/>
         <v>1.0033800171796965</v>
       </c>
-      <c r="T3" s="11">
-        <f>EXP(J3)</f>
+      <c r="T3" s="8">
+        <f t="shared" si="0"/>
         <v>0.92845179589189308</v>
       </c>
     </row>
@@ -678,7 +684,7 @@
       <c r="B4" s="5">
         <v>0.20093705322819599</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="14">
         <v>0.27282546878678599</v>
       </c>
       <c r="D4" s="7">
@@ -690,7 +696,7 @@
       <c r="F4" s="7">
         <v>0.14724901453428199</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="14">
         <v>0.15385746116075699</v>
       </c>
       <c r="H4" s="5">
@@ -702,38 +708,36 @@
       <c r="J4" s="5">
         <v>0.131309241605546</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11">
-        <f>EXP(C4)</f>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4:S4" si="1">EXP(C4)</f>
         <v>1.3136709482312561</v>
       </c>
-      <c r="N4" s="11">
-        <f>EXP(D4)</f>
+      <c r="N4" s="8">
+        <f t="shared" si="1"/>
         <v>1.2100575489651062</v>
       </c>
-      <c r="O4" s="11">
-        <f>EXP(E4)</f>
+      <c r="O4" s="8">
+        <f t="shared" si="1"/>
         <v>1.0992507910665157</v>
       </c>
-      <c r="P4" s="11">
-        <f>EXP(F4)</f>
+      <c r="P4" s="10">
+        <f t="shared" si="1"/>
         <v>1.1586424459192184</v>
       </c>
-      <c r="Q4" s="11">
-        <f>EXP(G4)</f>
+      <c r="Q4" s="8">
+        <f t="shared" si="1"/>
         <v>1.1663246283708724</v>
       </c>
-      <c r="R4" s="11">
-        <f>EXP(H4)</f>
+      <c r="R4" s="8">
+        <f t="shared" si="1"/>
         <v>1.1863427463742127</v>
       </c>
-      <c r="S4" s="11">
-        <f>EXP(I4)</f>
+      <c r="S4" s="8">
+        <f t="shared" si="1"/>
         <v>1.1366093718989567</v>
       </c>
-      <c r="T4" s="11">
-        <f t="shared" ref="T4:T7" si="0">EXP(J4)</f>
+      <c r="T4" s="8">
+        <f t="shared" ref="T4:T7" si="2">EXP(J4)</f>
         <v>1.1403203612923438</v>
       </c>
     </row>
@@ -744,7 +748,7 @@
       <c r="B5" s="5">
         <v>3.2940596005953702</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="14">
         <v>1.6218521232883301</v>
       </c>
       <c r="D5" s="7">
@@ -756,7 +760,7 @@
       <c r="F5" s="7">
         <v>2.7028047233911998</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="14">
         <v>-1.61351206596388</v>
       </c>
       <c r="H5" s="5">
@@ -768,17 +772,15 @@
       <c r="J5" s="5">
         <v>-0.56979247082569795</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11">
-        <f t="shared" si="0"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8">
+        <f t="shared" si="2"/>
         <v>0.56564281390584581</v>
       </c>
     </row>
@@ -789,7 +791,7 @@
       <c r="B6" s="5">
         <v>0.26794935146062798</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>-9.1993741160563802E-2</v>
       </c>
       <c r="D6" s="7">
@@ -801,7 +803,7 @@
       <c r="F6" s="7">
         <v>0.109592881361372</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="14">
         <v>-0.55113256431594804</v>
       </c>
       <c r="H6" s="5">
@@ -813,38 +815,36 @@
       <c r="J6" s="5">
         <v>-0.33159820003117402</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="11">
-        <f>EXP(C6)</f>
+      <c r="M6" s="8">
+        <f t="shared" ref="M6:S7" si="3">EXP(C6)</f>
         <v>0.91211085828263538</v>
       </c>
-      <c r="N6" s="11">
-        <f>EXP(D6)</f>
+      <c r="N6" s="8">
+        <f t="shared" si="3"/>
         <v>2.1176364143138788</v>
       </c>
-      <c r="O6" s="11">
-        <f>EXP(E6)</f>
+      <c r="O6" s="8">
+        <f t="shared" si="3"/>
         <v>0.57741599122972964</v>
       </c>
-      <c r="P6" s="11">
-        <f>EXP(F6)</f>
+      <c r="P6" s="10">
+        <f t="shared" si="3"/>
         <v>1.1158237053470244</v>
       </c>
-      <c r="Q6" s="11">
-        <f>EXP(G6)</f>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
         <v>0.57629674750082061</v>
       </c>
-      <c r="R6" s="11">
-        <f>EXP(H6)</f>
+      <c r="R6" s="8">
+        <f t="shared" si="3"/>
         <v>0.81592205213436808</v>
       </c>
-      <c r="S6" s="11">
-        <f>EXP(I6)</f>
+      <c r="S6" s="8">
+        <f t="shared" si="3"/>
         <v>0.78067349442963929</v>
       </c>
-      <c r="T6" s="11">
-        <f t="shared" si="0"/>
+      <c r="T6" s="8">
+        <f t="shared" si="2"/>
         <v>0.7177756671628871</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
       <c r="B7" s="5">
         <v>1.05560812643437</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="14">
         <v>0.97746244461415399</v>
       </c>
       <c r="D7" s="7">
@@ -867,7 +867,7 @@
       <c r="F7" s="7">
         <v>0.68679841185378998</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="14">
         <v>5.1977600939760699E-2</v>
       </c>
       <c r="H7" s="5">
@@ -879,83 +879,61 @@
       <c r="J7" s="5">
         <v>0.183124568737105</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="11">
-        <f>EXP(C7)</f>
+      <c r="M7" s="8">
+        <f t="shared" si="3"/>
         <v>2.6577036078572931</v>
       </c>
-      <c r="N7" s="11">
-        <f>EXP(D7)</f>
+      <c r="N7" s="8">
+        <f t="shared" si="3"/>
         <v>4.4714157393042271</v>
       </c>
-      <c r="O7" s="11">
-        <f>EXP(E7)</f>
+      <c r="O7" s="8">
+        <f t="shared" si="3"/>
         <v>0.83672982852035727</v>
       </c>
-      <c r="P7" s="11">
-        <f>EXP(F7)</f>
+      <c r="P7" s="10">
+        <f t="shared" si="3"/>
         <v>1.9873426842873363</v>
       </c>
-      <c r="Q7" s="11">
-        <f>EXP(G7)</f>
+      <c r="Q7" s="8">
+        <f t="shared" si="3"/>
         <v>1.0533521481509003</v>
       </c>
-      <c r="R7" s="11">
-        <f>EXP(H7)</f>
+      <c r="R7" s="8">
+        <f t="shared" si="3"/>
         <v>1.5942162372481421</v>
       </c>
-      <c r="S7" s="11">
-        <f>EXP(I7)</f>
+      <c r="S7" s="8">
+        <f t="shared" si="3"/>
         <v>1.2896191122910803</v>
       </c>
-      <c r="T7" s="11">
-        <f t="shared" si="0"/>
+      <c r="T7" s="8">
+        <f t="shared" si="2"/>
         <v>1.2009640013322707</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -964,7 +942,7 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -976,42 +954,40 @@
       <c r="F10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="Q10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="R10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1022,7 +998,7 @@
       <c r="B11" s="5">
         <v>-0.72418733007549796</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="14">
         <v>0.27349609377478901</v>
       </c>
       <c r="D11" s="7">
@@ -1037,7 +1013,7 @@
       <c r="G11" s="5">
         <v>8.76995947071494E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="14">
         <v>0.177569921996765</v>
       </c>
       <c r="I11" s="7">
@@ -1046,38 +1022,36 @@
       <c r="J11" s="5">
         <v>-8.5432814198011897E-4</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="11">
-        <f>EXP(C11)</f>
+      <c r="M11" s="8">
+        <f t="shared" ref="M11:T11" si="4">EXP(C11)</f>
         <v>1.3145522242649899</v>
       </c>
-      <c r="N11" s="11">
-        <f>EXP(D11)</f>
+      <c r="N11" s="8">
+        <f t="shared" si="4"/>
         <v>1.8064806282098642</v>
       </c>
-      <c r="O11" s="11">
-        <f>EXP(E11)</f>
+      <c r="O11" s="8">
+        <f t="shared" si="4"/>
         <v>0.74706899026593576</v>
       </c>
-      <c r="P11" s="11">
-        <f>EXP(F11)</f>
+      <c r="P11" s="10">
+        <f t="shared" si="4"/>
         <v>1.4676943495892443</v>
       </c>
-      <c r="Q11" s="11">
-        <f>EXP(G11)</f>
+      <c r="Q11" s="8">
+        <f t="shared" si="4"/>
         <v>1.0916601322840043</v>
       </c>
-      <c r="R11" s="11">
-        <f>EXP(H11)</f>
+      <c r="R11" s="8">
+        <f t="shared" si="4"/>
         <v>1.1943115636322705</v>
       </c>
-      <c r="S11" s="11">
-        <f>EXP(I11)</f>
+      <c r="S11" s="10">
+        <f t="shared" si="4"/>
         <v>1.3876581292645174</v>
       </c>
-      <c r="T11" s="11">
-        <f>EXP(J11)</f>
+      <c r="T11" s="8">
+        <f t="shared" si="4"/>
         <v>0.99914603669240343</v>
       </c>
       <c r="U11" s="3"/>
@@ -1089,7 +1063,7 @@
       <c r="B12" s="5">
         <v>0.195479579337167</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="14">
         <v>0.26759286547175898</v>
       </c>
       <c r="D12" s="7">
@@ -1104,7 +1078,7 @@
       <c r="G12" s="5">
         <v>0.15061700539491299</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="14">
         <v>0.16045577688295201</v>
       </c>
       <c r="I12" s="7">
@@ -1113,38 +1087,36 @@
       <c r="J12" s="5">
         <v>0.13499995807852</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11">
-        <f>EXP(C12)</f>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12:S12" si="5">EXP(C12)</f>
         <v>1.3068149821911019</v>
       </c>
-      <c r="N12" s="11">
-        <f>EXP(D12)</f>
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
         <v>1.2070310479200859</v>
       </c>
-      <c r="O12" s="11">
-        <f>EXP(E12)</f>
+      <c r="O12" s="8">
+        <f t="shared" si="5"/>
         <v>1.1312631816363532</v>
       </c>
-      <c r="P12" s="11">
-        <f>EXP(F12)</f>
+      <c r="P12" s="10">
+        <f t="shared" si="5"/>
         <v>1.1510698966895556</v>
       </c>
-      <c r="Q12" s="11">
-        <f>EXP(G12)</f>
+      <c r="Q12" s="8">
+        <f t="shared" si="5"/>
         <v>1.1625513219221577</v>
       </c>
-      <c r="R12" s="11">
-        <f>EXP(H12)</f>
+      <c r="R12" s="8">
+        <f t="shared" si="5"/>
         <v>1.174045852025434</v>
       </c>
-      <c r="S12" s="11">
-        <f>EXP(I12)</f>
+      <c r="S12" s="10">
+        <f t="shared" si="5"/>
         <v>1.1394055289218286</v>
       </c>
-      <c r="T12" s="11">
-        <f t="shared" ref="T12:T15" si="1">EXP(J12)</f>
+      <c r="T12" s="8">
+        <f t="shared" ref="T12:T15" si="6">EXP(J12)</f>
         <v>1.1445367363706396</v>
       </c>
       <c r="U12" s="3"/>
@@ -1156,7 +1128,7 @@
       <c r="B13" s="5">
         <v>-3.7084180119449202</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="14">
         <v>1.02186253327604</v>
       </c>
       <c r="D13" s="7">
@@ -1171,7 +1143,7 @@
       <c r="G13" s="5">
         <v>0.59669249706517802</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="14">
         <v>1.0989553795003699</v>
       </c>
       <c r="I13" s="7">
@@ -1180,17 +1152,15 @@
       <c r="J13" s="5">
         <v>-2.0872718541478499E-2</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11">
-        <f t="shared" si="1"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="8">
+        <f t="shared" si="6"/>
         <v>0.97934360891977101</v>
       </c>
       <c r="U13" s="3"/>
@@ -1202,7 +1172,7 @@
       <c r="B14" s="5">
         <v>-1.1073202652893801</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="14">
         <v>-0.25097628506973102</v>
       </c>
       <c r="D14" s="7">
@@ -1217,7 +1187,7 @@
       <c r="G14" s="5">
         <v>-0.20750431132615599</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="14">
         <v>-0.13691762180521599</v>
       </c>
       <c r="I14" s="7">
@@ -1226,38 +1196,36 @@
       <c r="J14" s="5">
         <v>-0.26544938389029799</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="11">
-        <f>EXP(C14)</f>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14:S15" si="7">EXP(C14)</f>
         <v>0.7780408225240274</v>
       </c>
-      <c r="N14" s="11">
-        <f>EXP(D14)</f>
+      <c r="N14" s="8">
+        <f t="shared" si="7"/>
         <v>1.2493039316939523</v>
       </c>
-      <c r="O14" s="11">
-        <f>EXP(E14)</f>
+      <c r="O14" s="8">
+        <f t="shared" si="7"/>
         <v>0.58664838534109476</v>
       </c>
-      <c r="P14" s="11">
-        <f>EXP(F14)</f>
+      <c r="P14" s="10">
+        <f t="shared" si="7"/>
         <v>1.1139828332996256</v>
       </c>
-      <c r="Q14" s="11">
-        <f>EXP(G14)</f>
+      <c r="Q14" s="8">
+        <f t="shared" si="7"/>
         <v>0.81260973833992589</v>
       </c>
-      <c r="R14" s="11">
-        <f>EXP(H14)</f>
+      <c r="R14" s="8">
+        <f t="shared" si="7"/>
         <v>0.87204206042399257</v>
       </c>
-      <c r="S14" s="11">
-        <f>EXP(I14)</f>
+      <c r="S14" s="10">
+        <f t="shared" si="7"/>
         <v>1.074471779364319</v>
       </c>
-      <c r="T14" s="11">
-        <f t="shared" si="1"/>
+      <c r="T14" s="8">
+        <f t="shared" si="6"/>
         <v>0.76686125743683364</v>
       </c>
       <c r="U14" s="3"/>
@@ -1269,7 +1237,7 @@
       <c r="B15" s="5">
         <v>-0.34105439486160999</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="14">
         <v>0.79796847261931003</v>
       </c>
       <c r="D15" s="7">
@@ -1284,7 +1252,7 @@
       <c r="G15" s="5">
         <v>0.38290350074045498</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="14">
         <v>0.49205746579874599</v>
       </c>
       <c r="I15" s="7">
@@ -1293,86 +1261,68 @@
       <c r="J15" s="5">
         <v>0.26374072760633799</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="11">
-        <f>EXP(C15)</f>
+      <c r="M15" s="8">
+        <f t="shared" si="7"/>
         <v>2.221024270569901</v>
       </c>
-      <c r="N15" s="11">
-        <f>EXP(D15)</f>
+      <c r="N15" s="8">
+        <f t="shared" si="7"/>
         <v>2.6121523972734537</v>
       </c>
-      <c r="O15" s="11">
-        <f>EXP(E15)</f>
+      <c r="O15" s="8">
+        <f t="shared" si="7"/>
         <v>0.9513570482128948</v>
       </c>
-      <c r="P15" s="11">
-        <f>EXP(F15)</f>
+      <c r="P15" s="10">
+        <f t="shared" si="7"/>
         <v>1.9337162471666245</v>
       </c>
-      <c r="Q15" s="11">
-        <f>EXP(G15)</f>
+      <c r="Q15" s="8">
+        <f t="shared" si="7"/>
         <v>1.4665365035532176</v>
       </c>
-      <c r="R15" s="11">
-        <f>EXP(H15)</f>
+      <c r="R15" s="8">
+        <f t="shared" si="7"/>
         <v>1.6356781120537274</v>
       </c>
-      <c r="S15" s="11">
-        <f>EXP(I15)</f>
+      <c r="S15" s="10">
+        <f t="shared" si="7"/>
         <v>1.7921318369600421</v>
       </c>
-      <c r="T15" s="11">
-        <f t="shared" si="1"/>
+      <c r="T15" s="8">
+        <f t="shared" si="6"/>
         <v>1.3017906341687464</v>
       </c>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="W17" s="12">
+        <f>AVERAGE(P6,P14,P22)</f>
+        <v>1.0779916455792158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1385,52 +1335,54 @@
       <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="P18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="R18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="S18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T18" s="12" t="s">
+      <c r="T18" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W18" s="12">
+        <f>AVERAGE(P7,P15,P23)</f>
+        <v>1.9296242578862122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1443,7 +1395,7 @@
       <c r="D19" s="7">
         <v>0.98030188488320102</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>-0.35900518801797199</v>
       </c>
       <c r="F19" s="7">
@@ -1461,42 +1413,40 @@
       <c r="J19" s="5">
         <v>-7.24119522867578E-2</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="11">
-        <f>EXP(C19)</f>
+      <c r="M19" s="8">
+        <f t="shared" ref="M19:T19" si="8">EXP(C19)</f>
         <v>1.9312072325440759</v>
       </c>
-      <c r="N19" s="11">
-        <f>EXP(D19)</f>
+      <c r="N19" s="8">
+        <f t="shared" si="8"/>
         <v>2.6652607224149452</v>
       </c>
-      <c r="O19" s="11">
-        <f>EXP(E19)</f>
+      <c r="O19" s="8">
+        <f t="shared" si="8"/>
         <v>0.69837072818228618</v>
       </c>
-      <c r="P19" s="11">
-        <f>EXP(F19)</f>
+      <c r="P19" s="10">
+        <f t="shared" si="8"/>
         <v>1.3695253315871374</v>
       </c>
-      <c r="Q19" s="11">
-        <f>EXP(G19)</f>
+      <c r="Q19" s="8">
+        <f t="shared" si="8"/>
         <v>0.90766033814194302</v>
       </c>
-      <c r="R19" s="11">
-        <f>EXP(H19)</f>
+      <c r="R19" s="8">
+        <f t="shared" si="8"/>
         <v>1.0759530427460451</v>
       </c>
-      <c r="S19" s="11">
+      <c r="S19" s="8">
         <f>EXP(I19)</f>
         <v>1.0910696920406171</v>
       </c>
-      <c r="T19" s="11">
-        <f>EXP(J19)</f>
+      <c r="T19" s="8">
+        <f t="shared" si="8"/>
         <v>0.9301476404276634</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1509,7 +1459,7 @@
       <c r="D20" s="7">
         <v>0.19876216045709</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>9.7027111304786404E-2</v>
       </c>
       <c r="F20" s="7">
@@ -1527,42 +1477,40 @@
       <c r="J20" s="5">
         <v>0.13854404326126901</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="11">
-        <f t="shared" ref="M20:M23" si="2">EXP(C20)</f>
+      <c r="M20" s="8">
+        <f t="shared" ref="M20:M23" si="9">EXP(C20)</f>
         <v>1.3547468007668308</v>
       </c>
-      <c r="N20" s="11">
-        <f>EXP(D20)</f>
+      <c r="N20" s="8">
+        <f t="shared" ref="N20:S20" si="10">EXP(D20)</f>
         <v>1.2198917928875119</v>
       </c>
-      <c r="O20" s="11">
-        <f>EXP(E20)</f>
+      <c r="O20" s="8">
+        <f t="shared" si="10"/>
         <v>1.1018902468983818</v>
       </c>
-      <c r="P20" s="11">
-        <f>EXP(F20)</f>
+      <c r="P20" s="10">
+        <f t="shared" si="10"/>
         <v>1.1715428055824892</v>
       </c>
-      <c r="Q20" s="11">
-        <f>EXP(G20)</f>
+      <c r="Q20" s="8">
+        <f t="shared" si="10"/>
         <v>1.1719537758651184</v>
       </c>
-      <c r="R20" s="11">
-        <f>EXP(H20)</f>
+      <c r="R20" s="8">
+        <f t="shared" si="10"/>
         <v>1.1944204386864312</v>
       </c>
-      <c r="S20" s="11">
-        <f>EXP(I20)</f>
+      <c r="S20" s="8">
+        <f t="shared" si="10"/>
         <v>1.1434323248464213</v>
       </c>
-      <c r="T20" s="11">
-        <f t="shared" ref="T20:T23" si="3">EXP(J20)</f>
+      <c r="T20" s="8">
+        <f t="shared" ref="T20:T23" si="11">EXP(J20)</f>
         <v>1.1486002685578842</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1523,7 @@
       <c r="D21" s="7">
         <v>4.9310670695851302</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>-3.6995946570567</v>
       </c>
       <c r="F21" s="7">
@@ -1593,21 +1541,19 @@
       <c r="J21" s="5">
         <v>-0.52508591502296498</v>
       </c>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11">
-        <f t="shared" si="3"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8">
+        <f t="shared" si="11"/>
         <v>0.59150454305728872</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1566,7 @@
       <c r="D22" s="7">
         <v>0.59073520889793196</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>-0.54917483169931303</v>
       </c>
       <c r="F22" s="7">
@@ -1638,42 +1584,40 @@
       <c r="J22" s="5">
         <v>-0.34395328735140601</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="11">
-        <f t="shared" si="2"/>
+      <c r="M22" s="8">
+        <f t="shared" si="9"/>
         <v>1.0651031898005117</v>
       </c>
-      <c r="N22" s="11">
-        <f>EXP(D22)</f>
+      <c r="N22" s="8">
+        <f t="shared" ref="N22:S23" si="12">EXP(D22)</f>
         <v>1.8053152114089754</v>
       </c>
-      <c r="O22" s="11">
-        <f>EXP(E22)</f>
+      <c r="O22" s="8">
+        <f t="shared" si="12"/>
         <v>0.57742608755248748</v>
       </c>
-      <c r="P22" s="11">
-        <f>EXP(F22)</f>
+      <c r="P22" s="10">
+        <f t="shared" si="12"/>
         <v>1.0041683980909977</v>
       </c>
-      <c r="Q22" s="11">
-        <f>EXP(G22)</f>
+      <c r="Q22" s="8">
+        <f t="shared" si="12"/>
         <v>0.66506071441249481</v>
       </c>
-      <c r="R22" s="11">
-        <f>EXP(H22)</f>
+      <c r="R22" s="8">
+        <f t="shared" si="12"/>
         <v>0.75957022699102383</v>
       </c>
-      <c r="S22" s="11">
-        <f>EXP(I22)</f>
+      <c r="S22" s="8">
+        <f t="shared" si="12"/>
         <v>0.83900022248535044</v>
       </c>
-      <c r="T22" s="11">
-        <f t="shared" si="3"/>
+      <c r="T22" s="8">
+        <f t="shared" si="11"/>
         <v>0.70896204477088365</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1686,7 +1630,7 @@
       <c r="D23" s="7">
         <v>1.36986856086847</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>-0.168835544336632</v>
       </c>
       <c r="F23" s="7">
@@ -1704,38 +1648,36 @@
       <c r="J23" s="5">
         <v>0.19912938277789</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="11">
-        <f t="shared" si="2"/>
+      <c r="M23" s="8">
+        <f t="shared" si="9"/>
         <v>3.5015962873316182</v>
       </c>
-      <c r="N23" s="11">
-        <f>EXP(D23)</f>
+      <c r="N23" s="8">
+        <f t="shared" si="12"/>
         <v>3.9348334703853469</v>
       </c>
-      <c r="O23" s="11">
-        <f>EXP(E23)</f>
+      <c r="O23" s="8">
+        <f t="shared" si="12"/>
         <v>0.84464779907873944</v>
       </c>
-      <c r="P23" s="11">
-        <f>EXP(F23)</f>
+      <c r="P23" s="10">
+        <f t="shared" si="12"/>
         <v>1.8678138422046755</v>
       </c>
-      <c r="Q23" s="11">
-        <f>EXP(G23)</f>
+      <c r="Q23" s="8">
+        <f t="shared" si="12"/>
         <v>1.2387550062458903</v>
       </c>
-      <c r="R23" s="11">
-        <f>EXP(H23)</f>
+      <c r="R23" s="8">
+        <f t="shared" si="12"/>
         <v>1.5241183883424554</v>
       </c>
-      <c r="S23" s="11">
-        <f>EXP(I23)</f>
+      <c r="S23" s="8">
+        <f t="shared" si="12"/>
         <v>1.4188709859494617</v>
       </c>
-      <c r="T23" s="11">
-        <f t="shared" si="3"/>
+      <c r="T23" s="8">
+        <f t="shared" si="11"/>
         <v>1.2203398466454565</v>
       </c>
     </row>
